--- a/TestCases/Back End/CreateKPI-BackEnd-Director.xlsx
+++ b/TestCases/Back End/CreateKPI-BackEnd-Director.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18805"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{5DB5CED4-5C1A-4C90-82CF-C29857093540}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{CCD164BE-6FB6-44B9-96A2-09FFA5C5FA6E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="15A57F973BC505C3D3860C9434CC913929663954" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Role: Director</t>
   </si>
@@ -41,28 +41,34 @@
     <t>I am returned to the login page</t>
   </si>
   <si>
-    <t>Step 2: Login as a Director and go to the create kpi page</t>
+    <t xml:space="preserve">Step 2: Login as a user with the appropriote role </t>
+  </si>
+  <si>
+    <t>I am redirected to the dashboard of that user</t>
+  </si>
+  <si>
+    <t>Step 3: Go to the create kpi page</t>
   </si>
   <si>
     <t>I am redirected to the create KPI page</t>
   </si>
   <si>
-    <t>Step 3: Fill out a KPI for an employee in your distract</t>
+    <t>Step 4: Fill out a KPI for an employee in your distract</t>
   </si>
   <si>
     <t>A new KPI will be added to the database on that employee</t>
   </si>
   <si>
-    <t>Step 4: Fill out a KPI for an employee that is not in your distract</t>
+    <t>Step 5: Fill out a KPI for an employee that is not in your distract</t>
   </si>
   <si>
     <t>An error pops up saying that that access is denied</t>
   </si>
   <si>
-    <t>Step 5: Leave Certain fields that are required blank</t>
-  </si>
-  <si>
-    <t>An error pops up saying that some of the fields have been left blank</t>
+    <t>Step 6: Leave Certain fields that are required blank</t>
+  </si>
+  <si>
+    <t>An error text pops up saying that some of the fields have been left blank</t>
   </si>
 </sst>
 </file>
@@ -413,21 +419,15 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="51" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="30.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="54" customHeight="1">
+    <row r="1" spans="1:6" ht="51" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="65.25" customHeight="1">
+    <row r="2" spans="1:6" ht="51" customHeight="1">
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -455,7 +455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="58.5" customHeight="1">
+    <row r="3" spans="1:6" ht="51" customHeight="1">
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -463,7 +463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="56.25" customHeight="1">
+    <row r="4" spans="1:6" ht="51" customHeight="1">
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -471,7 +471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="58.5" customHeight="1">
+    <row r="5" spans="1:6" ht="51" customHeight="1">
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
@@ -479,7 +479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60.75" customHeight="1">
+    <row r="6" spans="1:6" ht="51" customHeight="1">
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -487,7 +487,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60.75" customHeight="1">
+    <row r="7" spans="1:6" ht="51" customHeight="1">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
   </sheetData>
